--- a/Course List/Course list.xlsx
+++ b/Course List/Course list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\Stats\code\Bot\Course List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D0833-754A-4E03-96A1-DE7ACF15D71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6121E14-4CE0-472E-85E1-FAB45244113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCUFN" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>楊佳萍</t>
   </si>
@@ -493,6 +493,14 @@
   </si>
   <si>
     <t>翁祺鈞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁聖曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏千茹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1550,10 +1558,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>112502533</v>
+        <v>111408510</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1">
         <v>123</v>
@@ -1567,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA2AE8E-0D76-41C3-8085-16ED575F4031}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2195,6 +2203,17 @@
         <v>123</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>112502533</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="1">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2205,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DDB831-E78C-4E50-9A34-6A60BD8DDACD}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2580,8 +2599,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3">
+        <v>11344114</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>

--- a/Course List/Course list.xlsx
+++ b/Course List/Course list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\Stats\code\Bot\Course List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6121E14-4CE0-472E-85E1-FAB45244113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A2858-05A5-456B-BA45-EA8D9C87BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCUFN" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t>楊佳萍</t>
   </si>
@@ -501,6 +501,22 @@
   </si>
   <si>
     <t>顏千茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐瑋伶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂玟萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范芩蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許恒瑄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +554,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,6 +591,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1564,6 +1593,17 @@
         <v>155</v>
       </c>
       <c r="C64" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>112408024</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1">
         <v>123</v>
       </c>
     </row>
@@ -2224,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DDB831-E78C-4E50-9A34-6A60BD8DDACD}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2236,10 +2276,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2247,10 +2287,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>11140294</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -2258,10 +2298,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>11149171</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -2269,10 +2309,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>11240277</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
@@ -2280,10 +2320,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>11240297</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
@@ -2291,10 +2331,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>11240300</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -2302,10 +2342,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>11240307</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -2313,10 +2353,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>11240316</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
@@ -2324,10 +2364,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>11340171</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
@@ -2335,10 +2375,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>11340172</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
@@ -2346,10 +2386,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>11340173</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
@@ -2357,10 +2397,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11340174</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
@@ -2368,10 +2408,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>11340175</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
@@ -2379,10 +2419,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>11340179</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
@@ -2390,10 +2430,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>11340180</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
@@ -2401,10 +2441,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>11340184</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
@@ -2412,10 +2452,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>11340188</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
@@ -2423,10 +2463,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>11340192</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
@@ -2434,10 +2474,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>11340197</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
@@ -2445,10 +2485,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>11340198</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
@@ -2456,10 +2496,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>11340199</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
@@ -2467,10 +2507,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>11340201</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
@@ -2478,10 +2518,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>11340209</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
@@ -2489,10 +2529,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>11340210</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
@@ -2500,10 +2540,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>11340215</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
@@ -2511,10 +2551,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>11340217</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
@@ -2522,10 +2562,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>11340219</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
@@ -2533,10 +2573,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>11340220</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
@@ -2544,10 +2584,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>11340222</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
@@ -2555,10 +2595,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>11340230</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
@@ -2566,10 +2606,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>11340231</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
@@ -2577,10 +2617,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>11340232</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
@@ -2588,10 +2628,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>11340233</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
@@ -2599,10 +2639,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>11344114</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C34" s="1">
@@ -2610,16 +2650,37 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4">
+        <v>11141206</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4">
+        <v>11241419</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="3">
+        <v>11241422</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>

--- a/Course List/Course list.xlsx
+++ b/Course List/Course list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NCUFN" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CYCUIUBM" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,22 +20,22 @@
   <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="新細明體"/>
-      <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="新細明體"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -50,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -60,17 +60,24 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -81,24 +88,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -175,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -205,82 +233,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -292,142 +320,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -446,17 +496,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>StudentID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -531,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>﻿wyyclairewu20060301</t>
+          <t>wyyclairewu20060301</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>﻿1134O8oo2</t>
+          <t>1134O8oo2</t>
         </is>
       </c>
     </row>
@@ -576,7 +626,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>﻿1141statdis</t>
+          <t>1141statdis</t>
         </is>
       </c>
     </row>
@@ -591,7 +641,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>﻿113408005</t>
+          <t>113408005</t>
         </is>
       </c>
     </row>
@@ -606,7 +656,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>﻿seph1070228</t>
+          <t>seph1070228</t>
         </is>
       </c>
     </row>
@@ -649,7 +699,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>﻿Staa98</t>
+          <t>Staa98</t>
         </is>
       </c>
     </row>
@@ -664,7 +714,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>﻿abcd12345</t>
+          <t>abcd12345</t>
         </is>
       </c>
     </row>
@@ -679,7 +729,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>﻿113408012</t>
+          <t>113408012</t>
         </is>
       </c>
     </row>
@@ -783,7 +833,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>﻿statistics</t>
+          <t>statistics</t>
         </is>
       </c>
     </row>
@@ -798,7 +848,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>﻿taiwanno1</t>
+          <t>taiwanno1</t>
         </is>
       </c>
     </row>
@@ -886,7 +936,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>﻿wodemingzishilinyuxin</t>
+          <t>wodemingzishilinyuxin</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1176,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>﻿1223334444</t>
+          <t>1223334444</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1339,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>﻿113408530</t>
+          <t>113408530</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1412,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>﻿dongyu1226</t>
+          <t>dongyu1226</t>
         </is>
       </c>
     </row>
@@ -1427,17 +1477,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>StudentID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -1536,7 +1586,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>﻿Mouo0205</t>
+          <t>Mouo0205</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1704,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>﻿CindeaCantik265</t>
+          <t>CindeaCantik265</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1747,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>﻿s10330910</t>
+          <t>s10330910</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1762,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>﻿OAoa941212@</t>
+          <t>OAoa941212@</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1807,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>﻿2945Chad</t>
+          <t>2945Chad</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1837,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>﻿113409021ec</t>
+          <t>113409021ec</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1925,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>﻿NCUECO113409204</t>
+          <t>NCUECO113409204</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2075,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>﻿11340951870830</t>
+          <t>11340951870830</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2090,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>﻿Ns02kety</t>
+          <t>Ns02kety</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2183,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>﻿Yzy141205</t>
+          <t>Yzy141205</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2198,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>﻿jeremy0224</t>
+          <t>jeremy0224</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2299,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>﻿abby1225</t>
+          <t>abby1225</t>
         </is>
       </c>
     </row>
@@ -2262,13 +2312,8 @@
           <t>翁祺鈞</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>學生:孫偉傑
-學號:113409523
-系級:經濟二
-Password:A1234A058z</t>
-        </is>
+      <c r="C57" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2291,17 +2336,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>StudentID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -2686,7 +2731,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>﻿thisyeartwenty</t>
+          <t>thisyeartwenty</t>
         </is>
       </c>
     </row>
